--- a/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
+++ b/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431F463-6E8A-4DE4-BD36-B2004EE652DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF7FEC5-835A-487F-8D7B-DD48D77C0440}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="708" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="708" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreatePolicy" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,10 @@
     <sheet name="CountIntervening" sheetId="5" r:id="rId5"/>
     <sheet name="OverUtilizationPolicies" sheetId="6" r:id="rId6"/>
     <sheet name="OverUtilizationScenarioes" sheetId="7" r:id="rId7"/>
-    <sheet name="PrefixSuffix" sheetId="8" r:id="rId8"/>
-    <sheet name="SandwitchLeaves" sheetId="9" r:id="rId9"/>
-    <sheet name="SandwitchPolicies" sheetId="10" r:id="rId10"/>
+    <sheet name="LeaveEncashment" sheetId="11" r:id="rId8"/>
+    <sheet name="PrefixSuffix" sheetId="8" r:id="rId9"/>
+    <sheet name="SandwitchLeaves" sheetId="9" r:id="rId10"/>
+    <sheet name="SandwitchPolicies" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3351" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="487">
   <si>
     <t>Description</t>
   </si>
@@ -1501,6 +1502,42 @@
   </si>
   <si>
     <t>Past Dated Leave = true, Max no of post days = 10</t>
+  </si>
+  <si>
+    <t>Leave_Encashment</t>
+  </si>
+  <si>
+    <t>Leave Encashment</t>
+  </si>
+  <si>
+    <t>Auto_Leave_Encashment</t>
+  </si>
+  <si>
+    <t>Consider</t>
+  </si>
+  <si>
+    <t>accured</t>
+  </si>
+  <si>
+    <t>Encash_Min</t>
+  </si>
+  <si>
+    <t>Encash_Max</t>
+  </si>
+  <si>
+    <t>Encash_MinLeaveBalLeft</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>carryforward</t>
+  </si>
+  <si>
+    <t>both</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1594,6 +1631,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5259,6 +5298,92 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34141E-1A64-40BE-90F1-A6C29340FDAC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{254229BD-F5A2-41BE-8A2E-D71D06D8FBE8}">
+      <formula1>"Single,Multiple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{BCA52894-A9CD-4B2E-AB75-4DE397B410A7}">
+      <formula1>"weeklyOff,Holiday,weeklyOffAndHoliday"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C47585-8F49-4AB9-94DE-022128002098}">
   <dimension ref="A1:N161"/>
   <sheetViews>
@@ -6183,8 +6308,8 @@
   <dimension ref="A1:AV1048572"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C128"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17201,8 +17326,8 @@
   <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A199" sqref="A199"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17252,8 +17377,8 @@
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>110</v>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -17283,8 +17408,8 @@
       <c r="A3" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>110</v>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>400</v>
@@ -17301,8 +17426,8 @@
       <c r="A4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>110</v>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>466</v>
@@ -17319,8 +17444,8 @@
       <c r="A5" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>110</v>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>400</v>
@@ -17337,8 +17462,8 @@
       <c r="A6" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>110</v>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>400</v>
@@ -17355,8 +17480,8 @@
       <c r="A7" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>110</v>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>400</v>
@@ -17373,8 +17498,8 @@
       <c r="A8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>110</v>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>400</v>
@@ -17391,8 +17516,8 @@
       <c r="A9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>110</v>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>400</v>
@@ -17409,8 +17534,8 @@
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>110</v>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>400</v>
@@ -17427,8 +17552,8 @@
       <c r="A11" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>110</v>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>400</v>
@@ -17445,8 +17570,8 @@
       <c r="A12" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>110</v>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>400</v>
@@ -17463,8 +17588,8 @@
       <c r="A13" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>110</v>
+      <c r="B13" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>400</v>
@@ -17481,8 +17606,8 @@
       <c r="A14" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
+      <c r="B14" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>400</v>
@@ -17499,8 +17624,8 @@
       <c r="A15" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
+      <c r="B15" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>400</v>
@@ -17517,8 +17642,8 @@
       <c r="A16" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>110</v>
+      <c r="B16" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>400</v>
@@ -17535,8 +17660,8 @@
       <c r="A17" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>110</v>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>400</v>
@@ -17553,8 +17678,8 @@
       <c r="A18" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>110</v>
+      <c r="B18" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>400</v>
@@ -17571,8 +17696,8 @@
       <c r="A19" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>110</v>
+      <c r="B19" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>400</v>
@@ -17589,8 +17714,8 @@
       <c r="A20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>110</v>
+      <c r="B20" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>400</v>
@@ -17607,8 +17732,8 @@
       <c r="A21" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>110</v>
+      <c r="B21" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>400</v>
@@ -17625,8 +17750,8 @@
       <c r="A22" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>110</v>
+      <c r="B22" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>400</v>
@@ -17643,8 +17768,8 @@
       <c r="A23" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>110</v>
+      <c r="B23" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>400</v>
@@ -17661,8 +17786,8 @@
       <c r="A24" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>110</v>
+      <c r="B24" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>400</v>
@@ -17679,8 +17804,8 @@
       <c r="A25" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>110</v>
+      <c r="B25" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>400</v>
@@ -17697,8 +17822,8 @@
       <c r="A26" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>110</v>
+      <c r="B26" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>400</v>
@@ -17715,8 +17840,8 @@
       <c r="A27" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>110</v>
+      <c r="B27" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>400</v>
@@ -17733,8 +17858,8 @@
       <c r="A28" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>110</v>
+      <c r="B28" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>400</v>
@@ -17751,8 +17876,8 @@
       <c r="A29" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>110</v>
+      <c r="B29" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>400</v>
@@ -17769,8 +17894,8 @@
       <c r="A30" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>110</v>
+      <c r="B30" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>400</v>
@@ -17787,8 +17912,8 @@
       <c r="A31" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>110</v>
+      <c r="B31" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>400</v>
@@ -17805,8 +17930,8 @@
       <c r="A32" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>110</v>
+      <c r="B32" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>400</v>
@@ -17823,8 +17948,8 @@
       <c r="A33" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>110</v>
+      <c r="B33" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>400</v>
@@ -17841,8 +17966,8 @@
       <c r="A34" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>110</v>
+      <c r="B34" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>262</v>
@@ -17859,8 +17984,8 @@
       <c r="A35" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>110</v>
+      <c r="B35" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>262</v>
@@ -17877,8 +18002,8 @@
       <c r="A36" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>110</v>
+      <c r="B36" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>262</v>
@@ -17895,8 +18020,8 @@
       <c r="A37" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>110</v>
+      <c r="B37" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>400</v>
@@ -17913,8 +18038,8 @@
       <c r="A38" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>110</v>
+      <c r="B38" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>400</v>
@@ -17931,8 +18056,8 @@
       <c r="A39" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>110</v>
+      <c r="B39" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>400</v>
@@ -17949,8 +18074,8 @@
       <c r="A40" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>110</v>
+      <c r="B40" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>400</v>
@@ -17967,8 +18092,8 @@
       <c r="A41" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>110</v>
+      <c r="B41" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>400</v>
@@ -17985,8 +18110,8 @@
       <c r="A42" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>110</v>
+      <c r="B42" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>400</v>
@@ -18003,8 +18128,8 @@
       <c r="A43" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>110</v>
+      <c r="B43" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>400</v>
@@ -18021,8 +18146,8 @@
       <c r="A44" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>110</v>
+      <c r="B44" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>400</v>
@@ -18039,8 +18164,8 @@
       <c r="A45" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>110</v>
+      <c r="B45" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>400</v>
@@ -18057,8 +18182,8 @@
       <c r="A46" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>110</v>
+      <c r="B46" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>400</v>
@@ -18075,8 +18200,8 @@
       <c r="A47" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>110</v>
+      <c r="B47" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>400</v>
@@ -18093,8 +18218,8 @@
       <c r="A48" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>110</v>
+      <c r="B48" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>400</v>
@@ -18111,8 +18236,8 @@
       <c r="A49" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>110</v>
+      <c r="B49" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>400</v>
@@ -18129,8 +18254,8 @@
       <c r="A50" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>110</v>
+      <c r="B50" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>400</v>
@@ -18147,8 +18272,8 @@
       <c r="A51" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>110</v>
+      <c r="B51" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>400</v>
@@ -18165,8 +18290,8 @@
       <c r="A52" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>110</v>
+      <c r="B52" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>400</v>
@@ -18183,8 +18308,8 @@
       <c r="A53" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>110</v>
+      <c r="B53" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>400</v>
@@ -18201,8 +18326,8 @@
       <c r="A54" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>110</v>
+      <c r="B54" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>400</v>
@@ -18219,8 +18344,8 @@
       <c r="A55" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>110</v>
+      <c r="B55" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>400</v>
@@ -18237,8 +18362,8 @@
       <c r="A56" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>110</v>
+      <c r="B56" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>400</v>
@@ -18255,8 +18380,8 @@
       <c r="A57" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>110</v>
+      <c r="B57" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>400</v>
@@ -18273,8 +18398,8 @@
       <c r="A58" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>110</v>
+      <c r="B58" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>400</v>
@@ -18291,8 +18416,8 @@
       <c r="A59" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>110</v>
+      <c r="B59" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>400</v>
@@ -18309,8 +18434,8 @@
       <c r="A60" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>110</v>
+      <c r="B60" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>400</v>
@@ -18327,8 +18452,8 @@
       <c r="A61" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>110</v>
+      <c r="B61" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>400</v>
@@ -18345,8 +18470,8 @@
       <c r="A62" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>110</v>
+      <c r="B62" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>400</v>
@@ -18363,8 +18488,8 @@
       <c r="A63" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>110</v>
+      <c r="B63" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>400</v>
@@ -18381,8 +18506,8 @@
       <c r="A64" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>110</v>
+      <c r="B64" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>400</v>
@@ -18399,8 +18524,8 @@
       <c r="A65" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>110</v>
+      <c r="B65" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>400</v>
@@ -18417,8 +18542,8 @@
       <c r="A66" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>110</v>
+      <c r="B66" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>400</v>
@@ -18435,8 +18560,8 @@
       <c r="A67" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>110</v>
+      <c r="B67" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>400</v>
@@ -18453,8 +18578,8 @@
       <c r="A68" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>110</v>
+      <c r="B68" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>400</v>
@@ -18471,8 +18596,8 @@
       <c r="A69" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>110</v>
+      <c r="B69" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>400</v>
@@ -18489,8 +18614,8 @@
       <c r="A70" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>110</v>
+      <c r="B70" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>400</v>
@@ -18507,8 +18632,8 @@
       <c r="A71" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>110</v>
+      <c r="B71" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>400</v>
@@ -18525,8 +18650,8 @@
       <c r="A72" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>110</v>
+      <c r="B72" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>400</v>
@@ -18543,8 +18668,8 @@
       <c r="A73" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>110</v>
+      <c r="B73" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>400</v>
@@ -18561,8 +18686,8 @@
       <c r="A74" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>110</v>
+      <c r="B74" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>400</v>
@@ -18579,8 +18704,8 @@
       <c r="A75" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>110</v>
+      <c r="B75" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>400</v>
@@ -18597,8 +18722,8 @@
       <c r="A76" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>110</v>
+      <c r="B76" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>400</v>
@@ -21826,6 +21951,1298 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC554AF7-62E1-4412-91B3-99176A40436B}">
+  <dimension ref="A1:BB13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="43.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="54.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="38" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.21875" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX1" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="AY1" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA2" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB2" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA3" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="BB3" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="BA4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB4" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AZ5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA5" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB5" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AZ6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB6" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="8"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AZ7" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA7" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="BB7" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="8"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AZ8" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="BA8" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB8" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="8"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="8"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="AZ9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB9" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ10" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA10" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB10" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C11" s="3">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="8"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ11" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA11" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="BB11" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="8"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ12" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="BA12" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB12" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="3"/>
+      <c r="AX13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="AZ13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BA13" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB13" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E381B4D3-34F6-4B36-8A95-36690F578E4A}">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -22011,90 +23428,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34141E-1A64-40BE-90F1-A6C29340FDAC}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.21875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="F1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="H1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>453</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{254229BD-F5A2-41BE-8A2E-D71D06D8FBE8}">
-      <formula1>"Single,Multiple"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{BCA52894-A9CD-4B2E-AB75-4DE397B410A7}">
-      <formula1>"weeklyOff,Holiday,weeklyOffAndHoliday"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
+++ b/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{5EF7FEC5-835A-487F-8D7B-DD48D77C0440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B0C5023-81C4-4859-8D04-BAB1813E9DD2}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{5EF7FEC5-835A-487F-8D7B-DD48D77C0440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FEBF07B-2CB1-4E15-8209-5665AFFA0D53}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="708" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="622">
   <si>
     <t>Description</t>
   </si>
@@ -1942,6 +1942,9 @@
   </si>
   <si>
     <t>H_AutoOULT_127</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
   </si>
 </sst>
 </file>
@@ -19210,8 +19213,8 @@
   <dimension ref="A1:K251"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A251" sqref="A251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23838,8 +23841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E9DFED-D9B4-480F-9C2C-691A03216522}">
   <dimension ref="A1:AW1048572"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35239,13 +35242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2075607B-F2C0-4F13-8B24-6FED4E7F1B79}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D113" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127:J251"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81" customWidth="1"/>
+    <col min="1" max="1" width="87.21875" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" customWidth="1"/>
     <col min="3" max="11" width="20.21875" style="9" customWidth="1"/>
     <col min="12" max="12" width="19.88671875" customWidth="1"/>
@@ -35294,7 +35297,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -35328,7 +35331,7 @@
         <v>204</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>466</v>
@@ -35349,7 +35352,7 @@
         <v>205</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>466</v>
@@ -35370,7 +35373,7 @@
         <v>206</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>466</v>
@@ -35391,7 +35394,7 @@
         <v>209</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>466</v>
@@ -35412,7 +35415,7 @@
         <v>207</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>466</v>
@@ -35433,7 +35436,7 @@
         <v>208</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>466</v>
@@ -35454,7 +35457,7 @@
         <v>215</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>466</v>
@@ -35475,7 +35478,7 @@
         <v>216</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>466</v>
@@ -35496,7 +35499,7 @@
         <v>217</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>466</v>
@@ -35517,7 +35520,7 @@
         <v>218</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>466</v>
@@ -35538,7 +35541,7 @@
         <v>219</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>466</v>
@@ -35559,7 +35562,7 @@
         <v>220</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>466</v>
@@ -35580,7 +35583,7 @@
         <v>221</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>466</v>
@@ -35601,7 +35604,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>466</v>
@@ -35622,7 +35625,7 @@
         <v>223</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>466</v>
@@ -35643,7 +35646,7 @@
         <v>224</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>466</v>
@@ -35664,7 +35667,7 @@
         <v>230</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>466</v>
@@ -35685,7 +35688,7 @@
         <v>231</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>466</v>
@@ -35706,7 +35709,7 @@
         <v>232</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>466</v>
@@ -35727,7 +35730,7 @@
         <v>233</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>466</v>
@@ -35748,7 +35751,7 @@
         <v>234</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>466</v>
@@ -35769,7 +35772,7 @@
         <v>235</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>466</v>
@@ -35790,7 +35793,7 @@
         <v>236</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H25" s="8" t="s">
         <v>466</v>
@@ -35811,7 +35814,7 @@
         <v>237</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>466</v>
@@ -35832,7 +35835,7 @@
         <v>238</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>466</v>
@@ -35853,7 +35856,7 @@
         <v>239</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>466</v>
@@ -35874,7 +35877,7 @@
         <v>240</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>466</v>
@@ -35895,7 +35898,7 @@
         <v>241</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>466</v>
@@ -35916,7 +35919,7 @@
         <v>242</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H31" s="8" t="s">
         <v>466</v>
@@ -35937,7 +35940,7 @@
         <v>243</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>466</v>
@@ -35958,7 +35961,7 @@
         <v>244</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H33" s="8" t="s">
         <v>466</v>
@@ -35979,7 +35982,7 @@
         <v>264</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H34" s="8" t="s">
         <v>466</v>
@@ -36000,7 +36003,7 @@
         <v>264</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H35" s="8" t="s">
         <v>466</v>
@@ -36021,7 +36024,7 @@
         <v>264</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>466</v>
@@ -36042,7 +36045,7 @@
         <v>264</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>466</v>
@@ -36063,7 +36066,7 @@
         <v>264</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H38" s="8" t="s">
         <v>466</v>
@@ -36084,7 +36087,7 @@
         <v>264</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>466</v>
@@ -36105,7 +36108,7 @@
         <v>264</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H40" s="8" t="s">
         <v>466</v>
@@ -36126,7 +36129,7 @@
         <v>271</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H41" s="8" t="s">
         <v>466</v>
@@ -36147,7 +36150,7 @@
         <v>272</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>466</v>
@@ -36168,7 +36171,7 @@
         <v>273</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H43" s="8" t="s">
         <v>466</v>
@@ -36189,7 +36192,7 @@
         <v>274</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>466</v>
@@ -36210,7 +36213,7 @@
         <v>275</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H45" s="8" t="s">
         <v>466</v>
@@ -36231,7 +36234,7 @@
         <v>276</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H46" s="8" t="s">
         <v>466</v>
@@ -36252,7 +36255,7 @@
         <v>277</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>466</v>
@@ -36273,7 +36276,7 @@
         <v>278</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H48" s="8" t="s">
         <v>466</v>
@@ -36294,7 +36297,7 @@
         <v>279</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H49" s="8" t="s">
         <v>466</v>
@@ -36315,7 +36318,7 @@
         <v>280</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H50" s="8" t="s">
         <v>466</v>
@@ -36336,7 +36339,7 @@
         <v>281</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>466</v>
@@ -36357,7 +36360,7 @@
         <v>282</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H52" s="8" t="s">
         <v>466</v>
@@ -36378,7 +36381,7 @@
         <v>283</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H53" s="8" t="s">
         <v>466</v>
@@ -36399,7 +36402,7 @@
         <v>284</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>466</v>
@@ -36420,7 +36423,7 @@
         <v>285</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H55" s="8" t="s">
         <v>466</v>
@@ -36441,7 +36444,7 @@
         <v>286</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H56" s="8" t="s">
         <v>466</v>
@@ -36462,7 +36465,7 @@
         <v>287</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H57" s="8" t="s">
         <v>466</v>
@@ -36483,7 +36486,7 @@
         <v>288</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>466</v>
@@ -36504,7 +36507,7 @@
         <v>308</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H59" s="8" t="s">
         <v>466</v>
@@ -36525,7 +36528,7 @@
         <v>317</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H60" s="8" t="s">
         <v>466</v>
@@ -36546,7 +36549,7 @@
         <v>309</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H61" s="8" t="s">
         <v>466</v>
@@ -36567,7 +36570,7 @@
         <v>318</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H62" s="8" t="s">
         <v>466</v>
@@ -36588,7 +36591,7 @@
         <v>310</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H63" s="8" t="s">
         <v>466</v>
@@ -36609,7 +36612,7 @@
         <v>311</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>466</v>
@@ -36630,7 +36633,7 @@
         <v>312</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H65" s="8" t="s">
         <v>466</v>
@@ -36651,7 +36654,7 @@
         <v>313</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H66" s="8" t="s">
         <v>466</v>
@@ -36672,7 +36675,7 @@
         <v>314</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H67" s="8" t="s">
         <v>466</v>
@@ -36693,7 +36696,7 @@
         <v>315</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H68" s="8" t="s">
         <v>466</v>
@@ -36714,7 +36717,7 @@
         <v>316</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H69" s="8" t="s">
         <v>466</v>
@@ -36735,7 +36738,7 @@
         <v>324</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>466</v>
@@ -36756,7 +36759,7 @@
         <v>325</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H71" s="8" t="s">
         <v>466</v>
@@ -36777,7 +36780,7 @@
         <v>319</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H72" s="8" t="s">
         <v>466</v>
@@ -36798,7 +36801,7 @@
         <v>320</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H73" s="8" t="s">
         <v>466</v>
@@ -36819,7 +36822,7 @@
         <v>321</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H74" s="8" t="s">
         <v>466</v>
@@ -36840,7 +36843,7 @@
         <v>322</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H75" s="8" t="s">
         <v>466</v>
@@ -36861,7 +36864,7 @@
         <v>323</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="H76" s="8" t="s">
         <v>466</v>
@@ -36881,8 +36884,8 @@
       <c r="A77" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>5</v>
+      <c r="B77" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H77" s="8" t="s">
         <v>466</v>
@@ -36902,8 +36905,8 @@
       <c r="A78" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>5</v>
+      <c r="B78" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H78" s="8" t="s">
         <v>466</v>
@@ -36923,8 +36926,8 @@
       <c r="A79" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>5</v>
+      <c r="B79" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H79" s="8" t="s">
         <v>466</v>
@@ -36944,8 +36947,8 @@
       <c r="A80" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>5</v>
+      <c r="B80" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H80" s="8" t="s">
         <v>466</v>
@@ -36965,8 +36968,8 @@
       <c r="A81" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>5</v>
+      <c r="B81" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H81" s="8" t="s">
         <v>466</v>
@@ -36986,8 +36989,8 @@
       <c r="A82" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>5</v>
+      <c r="B82" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H82" s="8" t="s">
         <v>466</v>
@@ -37007,8 +37010,8 @@
       <c r="A83" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>5</v>
+      <c r="B83" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H83" s="8" t="s">
         <v>466</v>
@@ -37028,8 +37031,8 @@
       <c r="A84" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>5</v>
+      <c r="B84" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H84" s="8" t="s">
         <v>466</v>
@@ -37049,8 +37052,8 @@
       <c r="A85" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>5</v>
+      <c r="B85" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>466</v>
@@ -37070,8 +37073,8 @@
       <c r="A86" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>5</v>
+      <c r="B86" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H86" s="8" t="s">
         <v>466</v>
@@ -37091,8 +37094,8 @@
       <c r="A87" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>5</v>
+      <c r="B87" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H87" s="8" t="s">
         <v>466</v>
@@ -37112,8 +37115,8 @@
       <c r="A88" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>5</v>
+      <c r="B88" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H88" s="8" t="s">
         <v>466</v>
@@ -37133,8 +37136,8 @@
       <c r="A89" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>5</v>
+      <c r="B89" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>466</v>
@@ -37154,8 +37157,8 @@
       <c r="A90" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>5</v>
+      <c r="B90" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H90" s="8" t="s">
         <v>466</v>
@@ -37175,8 +37178,8 @@
       <c r="A91" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>5</v>
+      <c r="B91" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H91" s="8" t="s">
         <v>466</v>
@@ -37196,8 +37199,8 @@
       <c r="A92" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>5</v>
+      <c r="B92" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H92" s="8" t="s">
         <v>466</v>
@@ -37217,8 +37220,8 @@
       <c r="A93" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>5</v>
+      <c r="B93" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>466</v>
@@ -37238,8 +37241,8 @@
       <c r="A94" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>5</v>
+      <c r="B94" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H94" s="8" t="s">
         <v>466</v>
@@ -37259,8 +37262,8 @@
       <c r="A95" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>5</v>
+      <c r="B95" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>466</v>
@@ -37280,8 +37283,8 @@
       <c r="A96" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>5</v>
+      <c r="B96" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>466</v>
@@ -37301,8 +37304,8 @@
       <c r="A97" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>5</v>
+      <c r="B97" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>466</v>
@@ -37322,8 +37325,8 @@
       <c r="A98" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>5</v>
+      <c r="B98" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>466</v>
@@ -37343,8 +37346,8 @@
       <c r="A99" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>5</v>
+      <c r="B99" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H99" s="8" t="s">
         <v>466</v>
@@ -37364,8 +37367,8 @@
       <c r="A100" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>5</v>
+      <c r="B100" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H100" s="8" t="s">
         <v>466</v>
@@ -37385,8 +37388,8 @@
       <c r="A101" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>5</v>
+      <c r="B101" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H101" s="8" t="s">
         <v>466</v>
@@ -37406,8 +37409,8 @@
       <c r="A102" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>5</v>
+      <c r="B102" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H102" s="8" t="s">
         <v>466</v>
@@ -37427,8 +37430,8 @@
       <c r="A103" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>5</v>
+      <c r="B103" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H103" s="8" t="s">
         <v>466</v>
@@ -37448,8 +37451,8 @@
       <c r="A104" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>5</v>
+      <c r="B104" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H104" s="8" t="s">
         <v>466</v>
@@ -37469,8 +37472,8 @@
       <c r="A105" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>5</v>
+      <c r="B105" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H105" s="8" t="s">
         <v>466</v>
@@ -37490,8 +37493,8 @@
       <c r="A106" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>5</v>
+      <c r="B106" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H106" s="8" t="s">
         <v>466</v>
@@ -37511,8 +37514,8 @@
       <c r="A107" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>5</v>
+      <c r="B107" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>466</v>
@@ -37532,8 +37535,8 @@
       <c r="A108" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>5</v>
+      <c r="B108" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H108" s="8" t="s">
         <v>466</v>
@@ -37553,8 +37556,8 @@
       <c r="A109" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>5</v>
+      <c r="B109" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H109" s="8" t="s">
         <v>466</v>
@@ -37574,8 +37577,8 @@
       <c r="A110" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>5</v>
+      <c r="B110" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H110" s="8" t="s">
         <v>466</v>
@@ -37595,8 +37598,8 @@
       <c r="A111" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>5</v>
+      <c r="B111" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H111" s="8" t="s">
         <v>466</v>
@@ -37616,8 +37619,8 @@
       <c r="A112" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>5</v>
+      <c r="B112" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H112" s="8" t="s">
         <v>466</v>
@@ -37637,8 +37640,8 @@
       <c r="A113" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>5</v>
+      <c r="B113" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H113" s="8" t="s">
         <v>466</v>
@@ -37660,8 +37663,8 @@
       <c r="A114" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>5</v>
+      <c r="B114" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>466</v>
@@ -37683,8 +37686,8 @@
       <c r="A115" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>5</v>
+      <c r="B115" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H115" s="8" t="s">
         <v>466</v>
@@ -37706,8 +37709,8 @@
       <c r="A116" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>5</v>
+      <c r="B116" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H116" s="8" t="s">
         <v>466</v>
@@ -37729,8 +37732,8 @@
       <c r="A117" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>5</v>
+      <c r="B117" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H117" s="8" t="s">
         <v>466</v>
@@ -37752,8 +37755,8 @@
       <c r="A118" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>5</v>
+      <c r="B118" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H118" s="8" t="s">
         <v>466</v>
@@ -37775,8 +37778,8 @@
       <c r="A119" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>5</v>
+      <c r="B119" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>163</v>
@@ -37798,8 +37801,8 @@
       <c r="A120" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>5</v>
+      <c r="B120" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>163</v>
@@ -37821,8 +37824,8 @@
       <c r="A121" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>5</v>
+      <c r="B121" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>163</v>
@@ -37844,8 +37847,8 @@
       <c r="A122" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>5</v>
+      <c r="B122" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>163</v>
@@ -37867,8 +37870,8 @@
       <c r="A123" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>5</v>
+      <c r="B123" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>163</v>
@@ -37890,8 +37893,8 @@
       <c r="A124" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>5</v>
+      <c r="B124" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G124" s="9" t="s">
         <v>163</v>
@@ -37913,8 +37916,8 @@
       <c r="A125" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>5</v>
+      <c r="B125" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H125" s="8" t="s">
         <v>466</v>
@@ -37933,8 +37936,8 @@
       <c r="A126" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>5</v>
+      <c r="B126" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H126" s="8" t="s">
         <v>466</v>
@@ -37953,8 +37956,8 @@
       <c r="A127" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>5</v>
+      <c r="B127" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>5</v>
@@ -37987,8 +37990,8 @@
       <c r="A128" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>5</v>
+      <c r="B128" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H128" s="8" t="s">
         <v>186</v>
@@ -38008,8 +38011,8 @@
       <c r="A129" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>5</v>
+      <c r="B129" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H129" s="8" t="s">
         <v>186</v>
@@ -38029,8 +38032,8 @@
       <c r="A130" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>5</v>
+      <c r="B130" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H130" s="8" t="s">
         <v>186</v>
@@ -38050,8 +38053,8 @@
       <c r="A131" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>5</v>
+      <c r="B131" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H131" s="8" t="s">
         <v>186</v>
@@ -38071,8 +38074,8 @@
       <c r="A132" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>5</v>
+      <c r="B132" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H132" s="8" t="s">
         <v>186</v>
@@ -38092,8 +38095,8 @@
       <c r="A133" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>5</v>
+      <c r="B133" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H133" s="8" t="s">
         <v>186</v>
@@ -38113,8 +38116,8 @@
       <c r="A134" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>5</v>
+      <c r="B134" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H134" s="8" t="s">
         <v>186</v>
@@ -38134,8 +38137,8 @@
       <c r="A135" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>5</v>
+      <c r="B135" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>186</v>
@@ -38155,8 +38158,8 @@
       <c r="A136" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>5</v>
+      <c r="B136" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>186</v>
@@ -38176,8 +38179,8 @@
       <c r="A137" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>5</v>
+      <c r="B137" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H137" s="8" t="s">
         <v>186</v>
@@ -38197,8 +38200,8 @@
       <c r="A138" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>5</v>
+      <c r="B138" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>186</v>
@@ -38218,8 +38221,8 @@
       <c r="A139" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>5</v>
+      <c r="B139" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H139" s="8" t="s">
         <v>186</v>
@@ -38239,8 +38242,8 @@
       <c r="A140" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>5</v>
+      <c r="B140" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>186</v>
@@ -38260,8 +38263,8 @@
       <c r="A141" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>5</v>
+      <c r="B141" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H141" s="8" t="s">
         <v>186</v>
@@ -38281,8 +38284,8 @@
       <c r="A142" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>5</v>
+      <c r="B142" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H142" s="8" t="s">
         <v>186</v>
@@ -38302,8 +38305,8 @@
       <c r="A143" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>5</v>
+      <c r="B143" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H143" s="8" t="s">
         <v>186</v>
@@ -38323,8 +38326,8 @@
       <c r="A144" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>5</v>
+      <c r="B144" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H144" s="8" t="s">
         <v>186</v>
@@ -38344,8 +38347,8 @@
       <c r="A145" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>5</v>
+      <c r="B145" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>186</v>
@@ -38365,8 +38368,8 @@
       <c r="A146" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>5</v>
+      <c r="B146" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>186</v>
@@ -38386,8 +38389,8 @@
       <c r="A147" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>5</v>
+      <c r="B147" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H147" s="8" t="s">
         <v>186</v>
@@ -38407,8 +38410,8 @@
       <c r="A148" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B148" s="3" t="s">
-        <v>5</v>
+      <c r="B148" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H148" s="8" t="s">
         <v>186</v>
@@ -38428,8 +38431,8 @@
       <c r="A149" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>5</v>
+      <c r="B149" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H149" s="8" t="s">
         <v>186</v>
@@ -38449,8 +38452,8 @@
       <c r="A150" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>5</v>
+      <c r="B150" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>186</v>
@@ -38470,8 +38473,8 @@
       <c r="A151" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>5</v>
+      <c r="B151" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H151" s="8" t="s">
         <v>186</v>
@@ -38491,8 +38494,8 @@
       <c r="A152" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>5</v>
+      <c r="B152" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H152" s="8" t="s">
         <v>186</v>
@@ -38512,8 +38515,8 @@
       <c r="A153" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>5</v>
+      <c r="B153" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H153" s="8" t="s">
         <v>186</v>
@@ -38533,8 +38536,8 @@
       <c r="A154" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>5</v>
+      <c r="B154" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>186</v>
@@ -38554,8 +38557,8 @@
       <c r="A155" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>5</v>
+      <c r="B155" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H155" s="8" t="s">
         <v>186</v>
@@ -38575,8 +38578,8 @@
       <c r="A156" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>5</v>
+      <c r="B156" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>186</v>
@@ -38596,8 +38599,8 @@
       <c r="A157" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>5</v>
+      <c r="B157" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>186</v>
@@ -38617,8 +38620,8 @@
       <c r="A158" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>5</v>
+      <c r="B158" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H158" s="8" t="s">
         <v>186</v>
@@ -38638,8 +38641,8 @@
       <c r="A159" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>5</v>
+      <c r="B159" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H159" s="8" t="s">
         <v>186</v>
@@ -38659,8 +38662,8 @@
       <c r="A160" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>5</v>
+      <c r="B160" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H160" s="8" t="s">
         <v>186</v>
@@ -38680,8 +38683,8 @@
       <c r="A161" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>5</v>
+      <c r="B161" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H161" s="8" t="s">
         <v>186</v>
@@ -38701,8 +38704,8 @@
       <c r="A162" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>5</v>
+      <c r="B162" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H162" s="8" t="s">
         <v>186</v>
@@ -38722,8 +38725,8 @@
       <c r="A163" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>5</v>
+      <c r="B163" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H163" s="8" t="s">
         <v>186</v>
@@ -38743,8 +38746,8 @@
       <c r="A164" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B164" s="3" t="s">
-        <v>5</v>
+      <c r="B164" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H164" s="8" t="s">
         <v>186</v>
@@ -38764,8 +38767,8 @@
       <c r="A165" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>5</v>
+      <c r="B165" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H165" s="8" t="s">
         <v>186</v>
@@ -38785,8 +38788,8 @@
       <c r="A166" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>5</v>
+      <c r="B166" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H166" s="8" t="s">
         <v>186</v>
@@ -38806,8 +38809,8 @@
       <c r="A167" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>5</v>
+      <c r="B167" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H167" s="8" t="s">
         <v>186</v>
@@ -38827,8 +38830,8 @@
       <c r="A168" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>5</v>
+      <c r="B168" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H168" s="8" t="s">
         <v>186</v>
@@ -38848,8 +38851,8 @@
       <c r="A169" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>5</v>
+      <c r="B169" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H169" s="8" t="s">
         <v>186</v>
@@ -38869,8 +38872,8 @@
       <c r="A170" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>5</v>
+      <c r="B170" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>186</v>
@@ -38890,8 +38893,8 @@
       <c r="A171" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>5</v>
+      <c r="B171" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H171" s="8" t="s">
         <v>186</v>
@@ -38911,8 +38914,8 @@
       <c r="A172" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>5</v>
+      <c r="B172" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H172" s="8" t="s">
         <v>186</v>
@@ -38932,8 +38935,8 @@
       <c r="A173" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>5</v>
+      <c r="B173" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H173" s="8" t="s">
         <v>186</v>
@@ -38953,8 +38956,8 @@
       <c r="A174" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>5</v>
+      <c r="B174" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H174" s="8" t="s">
         <v>186</v>
@@ -38974,8 +38977,8 @@
       <c r="A175" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>5</v>
+      <c r="B175" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H175" s="8" t="s">
         <v>186</v>
@@ -38995,8 +38998,8 @@
       <c r="A176" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>5</v>
+      <c r="B176" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H176" s="8" t="s">
         <v>186</v>
@@ -39016,8 +39019,8 @@
       <c r="A177" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>5</v>
+      <c r="B177" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H177" s="8" t="s">
         <v>186</v>
@@ -39037,8 +39040,8 @@
       <c r="A178" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>5</v>
+      <c r="B178" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H178" s="8" t="s">
         <v>186</v>
@@ -39058,8 +39061,8 @@
       <c r="A179" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>5</v>
+      <c r="B179" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H179" s="8" t="s">
         <v>186</v>
@@ -39079,8 +39082,8 @@
       <c r="A180" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>5</v>
+      <c r="B180" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H180" s="8" t="s">
         <v>186</v>
@@ -39100,8 +39103,8 @@
       <c r="A181" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B181" s="3" t="s">
-        <v>5</v>
+      <c r="B181" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H181" s="8" t="s">
         <v>186</v>
@@ -39121,8 +39124,8 @@
       <c r="A182" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>5</v>
+      <c r="B182" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>186</v>
@@ -39142,8 +39145,8 @@
       <c r="A183" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B183" s="3" t="s">
-        <v>5</v>
+      <c r="B183" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>186</v>
@@ -39163,8 +39166,8 @@
       <c r="A184" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B184" s="3" t="s">
-        <v>5</v>
+      <c r="B184" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H184" s="8" t="s">
         <v>186</v>
@@ -39184,8 +39187,8 @@
       <c r="A185" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>5</v>
+      <c r="B185" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H185" s="8" t="s">
         <v>186</v>
@@ -39205,8 +39208,8 @@
       <c r="A186" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>5</v>
+      <c r="B186" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H186" s="8" t="s">
         <v>186</v>
@@ -39226,8 +39229,8 @@
       <c r="A187" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>5</v>
+      <c r="B187" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H187" s="8" t="s">
         <v>186</v>
@@ -39247,8 +39250,8 @@
       <c r="A188" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>5</v>
+      <c r="B188" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>186</v>
@@ -39268,8 +39271,8 @@
       <c r="A189" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>5</v>
+      <c r="B189" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>186</v>
@@ -39289,8 +39292,8 @@
       <c r="A190" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>5</v>
+      <c r="B190" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H190" s="8" t="s">
         <v>186</v>
@@ -39310,8 +39313,8 @@
       <c r="A191" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>5</v>
+      <c r="B191" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H191" s="8" t="s">
         <v>186</v>
@@ -39331,8 +39334,8 @@
       <c r="A192" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>5</v>
+      <c r="B192" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>186</v>
@@ -39352,8 +39355,8 @@
       <c r="A193" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>5</v>
+      <c r="B193" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H193" s="8" t="s">
         <v>186</v>
@@ -39373,8 +39376,8 @@
       <c r="A194" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>5</v>
+      <c r="B194" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H194" s="8" t="s">
         <v>186</v>
@@ -39394,8 +39397,8 @@
       <c r="A195" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>5</v>
+      <c r="B195" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H195" s="8" t="s">
         <v>186</v>
@@ -39415,8 +39418,8 @@
       <c r="A196" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>5</v>
+      <c r="B196" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H196" s="8" t="s">
         <v>186</v>
@@ -39436,8 +39439,8 @@
       <c r="A197" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B197" s="3" t="s">
-        <v>5</v>
+      <c r="B197" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H197" s="8" t="s">
         <v>186</v>
@@ -39457,8 +39460,8 @@
       <c r="A198" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>5</v>
+      <c r="B198" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H198" s="8" t="s">
         <v>186</v>
@@ -39478,8 +39481,8 @@
       <c r="A199" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>5</v>
+      <c r="B199" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>186</v>
@@ -39499,8 +39502,8 @@
       <c r="A200" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>5</v>
+      <c r="B200" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H200" s="8" t="s">
         <v>186</v>
@@ -39520,8 +39523,8 @@
       <c r="A201" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>5</v>
+      <c r="B201" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H201" s="8" t="s">
         <v>186</v>
@@ -39541,8 +39544,8 @@
       <c r="A202" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>5</v>
+      <c r="B202" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H202" s="8" t="s">
         <v>186</v>
@@ -39562,8 +39565,8 @@
       <c r="A203" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>5</v>
+      <c r="B203" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H203" s="8" t="s">
         <v>186</v>
@@ -39583,8 +39586,8 @@
       <c r="A204" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>5</v>
+      <c r="B204" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H204" s="8" t="s">
         <v>186</v>
@@ -39604,8 +39607,8 @@
       <c r="A205" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>5</v>
+      <c r="B205" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H205" s="8" t="s">
         <v>186</v>
@@ -39625,8 +39628,8 @@
       <c r="A206" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>5</v>
+      <c r="B206" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H206" s="8" t="s">
         <v>186</v>
@@ -39646,8 +39649,8 @@
       <c r="A207" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>5</v>
+      <c r="B207" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H207" s="8" t="s">
         <v>186</v>
@@ -39667,8 +39670,8 @@
       <c r="A208" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B208" s="3" t="s">
-        <v>5</v>
+      <c r="B208" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H208" s="8" t="s">
         <v>186</v>
@@ -39688,8 +39691,8 @@
       <c r="A209" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>5</v>
+      <c r="B209" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H209" s="8" t="s">
         <v>186</v>
@@ -39709,8 +39712,8 @@
       <c r="A210" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>5</v>
+      <c r="B210" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H210" s="8" t="s">
         <v>186</v>
@@ -39730,8 +39733,8 @@
       <c r="A211" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>5</v>
+      <c r="B211" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H211" s="8" t="s">
         <v>186</v>
@@ -39751,8 +39754,8 @@
       <c r="A212" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>5</v>
+      <c r="B212" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H212" s="8" t="s">
         <v>186</v>
@@ -39772,8 +39775,8 @@
       <c r="A213" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>5</v>
+      <c r="B213" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H213" s="8" t="s">
         <v>186</v>
@@ -39793,8 +39796,8 @@
       <c r="A214" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>5</v>
+      <c r="B214" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H214" s="8" t="s">
         <v>186</v>
@@ -39814,8 +39817,8 @@
       <c r="A215" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>5</v>
+      <c r="B215" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H215" s="8" t="s">
         <v>186</v>
@@ -39835,8 +39838,8 @@
       <c r="A216" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>5</v>
+      <c r="B216" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H216" s="8" t="s">
         <v>186</v>
@@ -39856,8 +39859,8 @@
       <c r="A217" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>5</v>
+      <c r="B217" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H217" s="8" t="s">
         <v>186</v>
@@ -39877,8 +39880,8 @@
       <c r="A218" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B218" s="3" t="s">
-        <v>5</v>
+      <c r="B218" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H218" s="8" t="s">
         <v>186</v>
@@ -39898,8 +39901,8 @@
       <c r="A219" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B219" s="3" t="s">
-        <v>5</v>
+      <c r="B219" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H219" s="8" t="s">
         <v>186</v>
@@ -39919,8 +39922,8 @@
       <c r="A220" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>5</v>
+      <c r="B220" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H220" s="8" t="s">
         <v>186</v>
@@ -39940,8 +39943,8 @@
       <c r="A221" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B221" s="3" t="s">
-        <v>5</v>
+      <c r="B221" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H221" s="8" t="s">
         <v>186</v>
@@ -39961,8 +39964,8 @@
       <c r="A222" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>5</v>
+      <c r="B222" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H222" s="8" t="s">
         <v>186</v>
@@ -39982,8 +39985,8 @@
       <c r="A223" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B223" s="3" t="s">
-        <v>5</v>
+      <c r="B223" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H223" s="8" t="s">
         <v>186</v>
@@ -40003,8 +40006,8 @@
       <c r="A224" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B224" s="3" t="s">
-        <v>5</v>
+      <c r="B224" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H224" s="8" t="s">
         <v>186</v>
@@ -40024,8 +40027,8 @@
       <c r="A225" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>5</v>
+      <c r="B225" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H225" s="8" t="s">
         <v>186</v>
@@ -40045,8 +40048,8 @@
       <c r="A226" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="B226" s="3" t="s">
-        <v>5</v>
+      <c r="B226" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H226" s="8" t="s">
         <v>186</v>
@@ -40066,8 +40069,8 @@
       <c r="A227" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>5</v>
+      <c r="B227" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H227" s="8" t="s">
         <v>186</v>
@@ -40087,8 +40090,8 @@
       <c r="A228" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>5</v>
+      <c r="B228" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H228" s="8" t="s">
         <v>186</v>
@@ -40108,8 +40111,8 @@
       <c r="A229" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>5</v>
+      <c r="B229" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H229" s="8" t="s">
         <v>186</v>
@@ -40129,8 +40132,8 @@
       <c r="A230" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>5</v>
+      <c r="B230" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H230" s="8" t="s">
         <v>186</v>
@@ -40150,8 +40153,8 @@
       <c r="A231" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B231" s="3" t="s">
-        <v>5</v>
+      <c r="B231" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H231" s="8" t="s">
         <v>186</v>
@@ -40171,8 +40174,8 @@
       <c r="A232" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>5</v>
+      <c r="B232" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H232" s="8" t="s">
         <v>186</v>
@@ -40192,8 +40195,8 @@
       <c r="A233" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>5</v>
+      <c r="B233" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H233" s="8" t="s">
         <v>186</v>
@@ -40213,8 +40216,8 @@
       <c r="A234" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>5</v>
+      <c r="B234" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H234" s="8" t="s">
         <v>186</v>
@@ -40234,8 +40237,8 @@
       <c r="A235" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B235" s="3" t="s">
-        <v>5</v>
+      <c r="B235" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H235" s="8" t="s">
         <v>186</v>
@@ -40255,8 +40258,8 @@
       <c r="A236" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>5</v>
+      <c r="B236" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H236" s="8" t="s">
         <v>186</v>
@@ -40276,8 +40279,8 @@
       <c r="A237" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>5</v>
+      <c r="B237" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H237" s="8" t="s">
         <v>186</v>
@@ -40297,8 +40300,8 @@
       <c r="A238" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B238" s="3" t="s">
-        <v>5</v>
+      <c r="B238" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H238" s="8" t="s">
         <v>186</v>
@@ -40320,8 +40323,8 @@
       <c r="A239" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>5</v>
+      <c r="B239" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H239" s="8" t="s">
         <v>186</v>
@@ -40343,8 +40346,8 @@
       <c r="A240" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B240" s="3" t="s">
-        <v>5</v>
+      <c r="B240" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H240" s="8" t="s">
         <v>186</v>
@@ -40366,8 +40369,8 @@
       <c r="A241" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>5</v>
+      <c r="B241" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H241" s="8" t="s">
         <v>186</v>
@@ -40389,8 +40392,8 @@
       <c r="A242" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>5</v>
+      <c r="B242" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H242" s="8" t="s">
         <v>186</v>
@@ -40412,8 +40415,8 @@
       <c r="A243" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>5</v>
+      <c r="B243" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H243" s="8" t="s">
         <v>186</v>
@@ -40435,8 +40438,8 @@
       <c r="A244" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B244" s="3" t="s">
-        <v>5</v>
+      <c r="B244" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>163</v>
@@ -40458,8 +40461,8 @@
       <c r="A245" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B245" s="3" t="s">
-        <v>5</v>
+      <c r="B245" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>163</v>
@@ -40481,8 +40484,8 @@
       <c r="A246" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B246" s="3" t="s">
-        <v>5</v>
+      <c r="B246" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G246" s="9" t="s">
         <v>163</v>
@@ -40504,8 +40507,8 @@
       <c r="A247" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B247" s="3" t="s">
-        <v>5</v>
+      <c r="B247" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G247" s="9" t="s">
         <v>163</v>
@@ -40527,8 +40530,8 @@
       <c r="A248" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>5</v>
+      <c r="B248" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G248" s="9" t="s">
         <v>163</v>
@@ -40550,8 +40553,8 @@
       <c r="A249" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>5</v>
+      <c r="B249" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>163</v>
@@ -40573,7 +40576,7 @@
       <c r="A250" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H250" s="8" t="s">
@@ -40593,17 +40596,17 @@
       <c r="A251" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B251" s="3" t="s">
-        <v>5</v>
+      <c r="B251" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H251" s="8" t="s">
         <v>186</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>490</v>
+        <v>621</v>
       </c>
       <c r="J251" s="8" t="s">
-        <v>490</v>
+        <v>621</v>
       </c>
       <c r="L251" t="s">
         <v>620</v>

--- a/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
+++ b/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{5EF7FEC5-835A-487F-8D7B-DD48D77C0440}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5FEBF07B-2CB1-4E15-8209-5665AFFA0D53}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3FE96C-7779-4239-A307-5F4E8777D126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="708" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="708" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreatePolicy" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="OverUtilizationScenarioes" sheetId="7" r:id="rId7"/>
     <sheet name="OverUtilizationPoliciesHourly" sheetId="12" r:id="rId8"/>
     <sheet name="OverUtilizationScenarioesHourly" sheetId="13" r:id="rId9"/>
-    <sheet name="LeaveEncashment" sheetId="11" r:id="rId10"/>
-    <sheet name="PrefixSuffix" sheetId="8" r:id="rId11"/>
-    <sheet name="SandwitchLeaves" sheetId="9" r:id="rId12"/>
-    <sheet name="SandwitchPolicies" sheetId="10" r:id="rId13"/>
+    <sheet name="dummySheet" sheetId="14" r:id="rId10"/>
+    <sheet name="LeaveEncashment" sheetId="11" r:id="rId11"/>
+    <sheet name="PrefixSuffix" sheetId="8" r:id="rId12"/>
+    <sheet name="SandwitchLeaves" sheetId="9" r:id="rId13"/>
+    <sheet name="SandwitchPolicies" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6587" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6609" uniqueCount="622">
   <si>
     <t>Description</t>
   </si>
@@ -5705,6 +5706,93 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CD6D18-2A12-4076-9959-A0C59A1611CC}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC554AF7-62E1-4412-91B3-99176A40436B}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
@@ -6996,7 +7084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E381B4D3-34F6-4B36-8A95-36690F578E4A}">
   <dimension ref="A1:X3"/>
   <sheetViews>
@@ -7184,7 +7272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE34141E-1A64-40BE-90F1-A6C29340FDAC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -7270,7 +7358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C47585-8F49-4AB9-94DE-022128002098}">
   <dimension ref="A1:N161"/>
   <sheetViews>
@@ -8194,9 +8282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C37CE7-1537-480B-8665-67CB63E08DCA}">
   <dimension ref="A1:AV1048572"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AS42" sqref="AS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35242,8 +35330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2075607B-F2C0-4F13-8B24-6FED4E7F1B79}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
+++ b/leave/src/main/resources/TestData/Application/LeaveApplication.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F244EB-4455-4CCD-BF08-D5BC978D219D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922ADDFE-6FEF-42AC-9BE2-9D8A88100163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="768" windowWidth="22572" windowHeight="11844" tabRatio="708" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="708" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreatePolicy" sheetId="1" r:id="rId1"/>
@@ -7272,8 +7272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A1A484-204C-4185-8B80-AE94A3498C16}">
   <dimension ref="A1:BG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
